--- a/biology/Zoologie/Ibis_à_cou_noir/Ibis_à_cou_noir.xlsx
+++ b/biology/Zoologie/Ibis_à_cou_noir/Ibis_à_cou_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ibis_%C3%A0_cou_noir</t>
+          <t>Ibis_à_cou_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Threskiornis moluccus
 L'Ibis à cou noir ou Ibis blanc d'Australie (Threskiornis molucca) est une espèce d'oiseaux de la famille des Threskiornithidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ibis_%C3%A0_cou_noir</t>
+          <t>Ibis_à_cou_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure 70 cm de haut et a un plumage entièrement blanc sauf à l'extrémité de la queue où il a quelques plumes noires. La tête et le cou sont déplumés et noirs.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ibis_%C3%A0_cou_noir</t>
+          <t>Ibis_à_cou_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est répandu dans tout le Nord et l'Est de l'Australie et au Sud-Ouest de l'Australie. On ne le trouve pas en Tasmanie.
 Il vit dans toutes les régions qui ne sont pas désertiques. Il vit dans les marais, les prairies et à proximité des villes dans les décharges. On le retrouve également dans les parcs municipaux (à Sydney, par exemple).
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ibis_%C3%A0_cou_noir</t>
+          <t>Ibis_à_cou_noir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de petits invertébrés aquatiques (écrevisses, moules,..) ou terrestres et de détritus humains.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ibis_%C3%A0_cou_noir</t>
+          <t>Ibis_à_cou_noir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans les arbres.
 </t>
